--- a/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6798</v>
+        <v>6162</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1116480680228444</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4082724626332114</v>
+        <v>0.370059902857349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>8186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4872</v>
+        <v>5020</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10752</v>
+        <v>10836</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6146063378121135</v>
+        <v>0.6146063378121134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3657586959670096</v>
+        <v>0.3768831838172469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8072841014979952</v>
+        <v>0.8135803556707463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -783,19 +783,19 @@
         <v>10045</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5687</v>
+        <v>5639</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15083</v>
+        <v>15703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.335163066615039</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.189770139648112</v>
+        <v>0.1881417946507489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5032685348474559</v>
+        <v>0.5239441214260409</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>588</v>
+        <v>793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6388</v>
+        <v>6889</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1506489199576156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03529832550366583</v>
+        <v>0.04762690622820562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3836230201753051</v>
+        <v>0.4137244317619141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,16 +836,16 @@
         <v>296</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3225</v>
+        <v>3190</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08783688583146594</v>
+        <v>0.08783688583146591</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02224333007375131</v>
+        <v>0.02224583052820693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2420995905633783</v>
+        <v>0.2395400074203488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -854,19 +854,19 @@
         <v>3678</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1622</v>
+        <v>1543</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7392</v>
+        <v>7611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1227352090941646</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05410552972928062</v>
+        <v>0.05147057863531204</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2466563605646115</v>
+        <v>0.2539499474574959</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>12283</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8158</v>
+        <v>8035</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15141</v>
+        <v>14923</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7377030120195399</v>
+        <v>0.7377030120195401</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4899292837959672</v>
+        <v>0.4825514315195084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9092987576693095</v>
+        <v>0.8962191322320983</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -904,19 +904,19 @@
         <v>3963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1625</v>
+        <v>1511</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7490</v>
+        <v>7252</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2975567763564207</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1220111736516022</v>
+        <v>0.1134180830561008</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5623201973516047</v>
+        <v>0.5444496564710269</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -925,19 +925,19 @@
         <v>16247</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10864</v>
+        <v>10914</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21196</v>
+        <v>21483</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5421017242907963</v>
+        <v>0.5421017242907964</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3625054432019195</v>
+        <v>0.3641728550723866</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7072286015529353</v>
+        <v>0.716804461422749</v>
       </c>
     </row>
     <row r="7">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6328</v>
+        <v>5605</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1091927198076746</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4043188491833541</v>
+        <v>0.3580912223237717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1050,19 +1050,19 @@
         <v>4290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1416</v>
+        <v>1477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8020</v>
+        <v>7856</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2775996181733614</v>
+        <v>0.2775996181733615</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09163232150277449</v>
+        <v>0.09558005329430701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5189644794266648</v>
+        <v>0.5083696858346837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1071,19 +1071,19 @@
         <v>5999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2900</v>
+        <v>2738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11024</v>
+        <v>10712</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1928569013682637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09322878215915748</v>
+        <v>0.08802760118954896</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3544042035367199</v>
+        <v>0.3443856960111721</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>3856</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9153</v>
+        <v>8566</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2463304575589011</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07241937623198534</v>
+        <v>0.07295286906855089</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5847632036372282</v>
+        <v>0.5472559245485203</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1121,19 +1121,19 @@
         <v>2211</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>516</v>
+        <v>611</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5170</v>
+        <v>5401</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1430946079308777</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03341164830227884</v>
+        <v>0.03955322276463505</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3345727300966352</v>
+        <v>0.3494945944170388</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1142,19 +1142,19 @@
         <v>6067</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2490</v>
+        <v>2405</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12009</v>
+        <v>11433</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1950431115495617</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08004692120378862</v>
+        <v>0.07731939807436999</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3860675240405096</v>
+        <v>0.3675472455240167</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>10087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5582</v>
+        <v>5506</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13532</v>
+        <v>13549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6444768226334243</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3566293927571277</v>
+        <v>0.351780235706655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8645583481381458</v>
+        <v>0.8656207276337685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1192,19 +1192,19 @@
         <v>8952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5233</v>
+        <v>5405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12854</v>
+        <v>12967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5793057738957609</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3386314130493246</v>
+        <v>0.3497769842547536</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8317819880623334</v>
+        <v>0.8391312878363518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1213,19 +1213,19 @@
         <v>19039</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13418</v>
+        <v>13318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24636</v>
+        <v>24344</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6120999870821746</v>
+        <v>0.6120999870821744</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4313869706610641</v>
+        <v>0.4281658522546311</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7920268858804066</v>
+        <v>0.7826394794698879</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>3641</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8173</v>
+        <v>8335</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2356509087021804</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07352331978632161</v>
+        <v>0.07252609637665275</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5289913857369941</v>
+        <v>0.5394341531791433</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1338,19 +1338,19 @@
         <v>4332</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1942</v>
+        <v>1995</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7165</v>
+        <v>7061</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4717428239214472</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2114378395571939</v>
+        <v>0.21722560935447</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7802040145740659</v>
+        <v>0.7688735416273497</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1359,19 +1359,19 @@
         <v>7973</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3588</v>
+        <v>4104</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12871</v>
+        <v>13482</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.32366426123651</v>
+        <v>0.3236642612365101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1456632408046707</v>
+        <v>0.1665759439589511</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5224881639548651</v>
+        <v>0.5472880359223462</v>
       </c>
     </row>
     <row r="13">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4135</v>
+        <v>4914</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06082140811280078</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2676127533629004</v>
+        <v>0.3180227284710294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2976</v>
+        <v>2987</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0786689149612006</v>
+        <v>0.07866891496120063</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3240818182491554</v>
+        <v>0.3252877609067719</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1433,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5463</v>
+        <v>5426</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06747482913591461</v>
+        <v>0.06747482913591463</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2217525939698167</v>
+        <v>0.2202359411074573</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>10870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6601</v>
+        <v>6182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14093</v>
+        <v>14287</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7035276831850187</v>
+        <v>0.7035276831850188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4272405672392151</v>
+        <v>0.4000745603536014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9120838338492332</v>
+        <v>0.9246327456096887</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1480,19 +1480,19 @@
         <v>4129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1482</v>
+        <v>1885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6732</v>
+        <v>6523</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4495882611173522</v>
+        <v>0.4495882611173523</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1613740879108277</v>
+        <v>0.2052916421063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7330322768019463</v>
+        <v>0.7102174758906468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -1501,19 +1501,19 @@
         <v>14999</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10166</v>
+        <v>10262</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19290</v>
+        <v>19603</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6088609096275754</v>
+        <v>0.6088609096275756</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4126839236923974</v>
+        <v>0.4165567765098919</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7830351214284152</v>
+        <v>0.7957294115957442</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>3868</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1513</v>
+        <v>1158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7953</v>
+        <v>7928</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1891646540630017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07401054294342892</v>
+        <v>0.05664819732371312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3889529433394141</v>
+        <v>0.3877211074978751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1626,19 +1626,19 @@
         <v>11212</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7560</v>
+        <v>7373</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14119</v>
+        <v>14397</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5800095223502549</v>
+        <v>0.5800095223502552</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3911015577744823</v>
+        <v>0.3814055598946421</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7304055996462044</v>
+        <v>0.7447859710798171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1647,19 +1647,19 @@
         <v>15079</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10662</v>
+        <v>10609</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20448</v>
+        <v>20607</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3790947257719945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2680427891057554</v>
+        <v>0.2667115773680195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5140621603928072</v>
+        <v>0.5180529503164873</v>
       </c>
     </row>
     <row r="17">
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4030</v>
+        <v>4271</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04133683781157449</v>
+        <v>0.04133683781157448</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1970625237951231</v>
+        <v>0.2088526652199537</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1697,19 +1697,19 @@
         <v>1838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4886</v>
+        <v>5690</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09508091495963569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02598864053019916</v>
+        <v>0.02664498662788639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2527520030845881</v>
+        <v>0.2943608662044538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1718,19 +1718,19 @@
         <v>2683</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6628</v>
+        <v>6749</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06745363568945469</v>
+        <v>0.0674536356894547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0199843501141589</v>
+        <v>0.01974066639809823</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1666222374327415</v>
+        <v>0.1696747689357505</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>15735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11592</v>
+        <v>11668</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18442</v>
+        <v>18731</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.769498508125424</v>
+        <v>0.7694985081254239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5669197844312139</v>
+        <v>0.5706235145903054</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9018901699747811</v>
+        <v>0.9160281942497757</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>6281</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3650</v>
+        <v>3339</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9771</v>
+        <v>9702</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3249095626901092</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1888363768861075</v>
+        <v>0.1727254914586742</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5055015367753011</v>
+        <v>0.5019264496969623</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>32</v>
@@ -1789,19 +1789,19 @@
         <v>22015</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>16795</v>
+        <v>16373</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>26729</v>
+        <v>26554</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5534516385385508</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4222207669495768</v>
+        <v>0.411613337305371</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6719601853484074</v>
+        <v>0.6675666295082742</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>11077</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6160</v>
+        <v>5863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18267</v>
+        <v>17611</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1624177337725285</v>
+        <v>0.1624177337725286</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09032338140100926</v>
+        <v>0.08596718803091875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2678354941045267</v>
+        <v>0.2582119814409502</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -1914,19 +1914,19 @@
         <v>28019</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20766</v>
+        <v>20281</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34585</v>
+        <v>34707</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4891199644293209</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3625080048591866</v>
+        <v>0.3540381591525344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6037370297522725</v>
+        <v>0.6058695859242516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>53</v>
@@ -1935,19 +1935,19 @@
         <v>39096</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30124</v>
+        <v>30558</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49555</v>
+        <v>49076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3115574140964154</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2400534201892654</v>
+        <v>0.2435163922212925</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3949002054941945</v>
+        <v>0.3910843180387594</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>8149</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3747</v>
+        <v>4094</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14639</v>
+        <v>14401</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1194840637806505</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05494459270328723</v>
+        <v>0.06003094857060706</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2146403383881753</v>
+        <v>0.2111571919109093</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -1985,19 +1985,19 @@
         <v>5941</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3008</v>
+        <v>3141</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10263</v>
+        <v>10275</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1037174251262462</v>
+        <v>0.1037174251262463</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0525078914572854</v>
+        <v>0.05483980713601801</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1791572139125474</v>
+        <v>0.1793682416998463</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -2006,19 +2006,19 @@
         <v>14091</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8659</v>
+        <v>8505</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21733</v>
+        <v>22444</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1122865878283962</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06899956204097517</v>
+        <v>0.06777428436978089</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1731913072515435</v>
+        <v>0.178852999779441</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>48976</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>33</v>
@@ -2056,19 +2056,19 @@
         <v>23324</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -2077,19 +2077,19 @@
         <v>72300</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="23">
